--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Dropbox\AlexAbreu - Scheduling projects\_heuristics for IW (OPSE - Revision Submitted)\Submission_5_AJSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb1efa335975ee48/_Research/projects/fs_neh_iw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A7F501-25CF-496A-A008-F7E970011D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{44A7F501-25CF-496A-A008-F7E970011D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C0BEAA-11CF-4259-ABE9-281E71851A26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CD60A20F-8A22-4239-8E9C-EFFACA58A4C3}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Heuristics!$D$2:$Y$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$N$721</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2672,10 +2673,10 @@
   <dimension ref="A1:X721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38020,10 +38021,10 @@
   <dimension ref="A1:Y723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D702" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J723" sqref="J723"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93614,19 +93615,18 @@
       <c r="Y723" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="D2:Y2" xr:uid="{45650492-FAF3-46A5-B78D-0754FBA9B05D}"/>
   <mergeCells count="11">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
